--- a/formatted/candidates/candidates-2/candidates-positions-wanted-second.xlsx
+++ b/formatted/candidates/candidates-2/candidates-positions-wanted-second.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFCC426-28E2-3742-B94E-299D6B2920E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289ACDDD-8DDD-4646-9EA1-E84A979DEC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="58500" windowHeight="27860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -837,7 +837,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>